--- a/results/Homeopathy_excluded/mod2.lrecon.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.lrecon.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0343562624446557</v>
+        <v>0.0343567074866967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.032830088958582</v>
+        <v>0.0328300933700571</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0299895295234111</v>
+        <v>-0.0299890931277024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0987020544127226</v>
+        <v>0.0987025081010958</v>
       </c>
       <c r="G2" t="n">
-        <v>1.04648703474423</v>
+        <v>1.04650045004234</v>
       </c>
       <c r="H2" t="n">
-        <v>0.295336227838919</v>
+        <v>0.29533003725276</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0299097621025052</v>
+        <v>0.0299083127659328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0795087026720693</v>
+        <v>0.0795088486627933</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.125924431592254</v>
+        <v>-0.125926167065388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.185743955797265</v>
+        <v>0.185742792597253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.376182242915809</v>
+        <v>0.376163323566381</v>
       </c>
       <c r="H3" t="n">
-        <v>0.706781415632598</v>
+        <v>0.706795479949078</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0468710288270235</v>
+        <v>-0.0468707094054742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0344590286611721</v>
+        <v>0.034459061731613</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.114409483945154</v>
+        <v>-0.114409229340478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0206674262911074</v>
+        <v>0.0206678105295296</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.36019588038583</v>
+        <v>-1.36018530540763</v>
       </c>
       <c r="H4" t="n">
-        <v>0.173767945884351</v>
+        <v>0.1737712914644</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0173949957201375</v>
+        <v>-0.0173943108471553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0289437897610251</v>
+        <v>0.028943819131694</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0741237812278459</v>
+        <v>-0.0741231539203168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0393337897875709</v>
+        <v>0.0393345322260063</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.600992332509308</v>
+        <v>-0.600968060504089</v>
       </c>
       <c r="H5" t="n">
-        <v>0.547845093237389</v>
+        <v>0.54786125977759</v>
       </c>
     </row>
   </sheetData>
